--- a/Data/vaccination_cumulative.xlsx
+++ b/Data/vaccination_cumulative.xlsx
@@ -1,19 +1,248 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/GitHub/ecomplab/COVID19_vaccine_model/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05CF695-B063-2246-A5AB-9D9C21D73969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="מספר מתחסנים - מצטבר..." sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>19-12-2020</t>
+  </si>
+  <si>
+    <t>20-12-2020</t>
+  </si>
+  <si>
+    <t>21-12-2020</t>
+  </si>
+  <si>
+    <t>22-12-2020</t>
+  </si>
+  <si>
+    <t>23-12-2020</t>
+  </si>
+  <si>
+    <t>24-12-2020</t>
+  </si>
+  <si>
+    <t>25-12-2020</t>
+  </si>
+  <si>
+    <t>26-12-2020</t>
+  </si>
+  <si>
+    <t>27-12-2020</t>
+  </si>
+  <si>
+    <t>28-12-2020</t>
+  </si>
+  <si>
+    <t>29-12-2020</t>
+  </si>
+  <si>
+    <t>30-12-2020</t>
+  </si>
+  <si>
+    <t>31-12-2020</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>02-01-2021</t>
+  </si>
+  <si>
+    <t>03-01-2021</t>
+  </si>
+  <si>
+    <t>04-01-2021</t>
+  </si>
+  <si>
+    <t>05-01-2021</t>
+  </si>
+  <si>
+    <t>06-01-2021</t>
+  </si>
+  <si>
+    <t>07-01-2021</t>
+  </si>
+  <si>
+    <t>08-01-2021</t>
+  </si>
+  <si>
+    <t>09-01-2021</t>
+  </si>
+  <si>
+    <t>10-01-2021</t>
+  </si>
+  <si>
+    <t>11-01-2021</t>
+  </si>
+  <si>
+    <t>12-01-2021</t>
+  </si>
+  <si>
+    <t>13-01-2021</t>
+  </si>
+  <si>
+    <t>14-01-2021</t>
+  </si>
+  <si>
+    <t>15-01-2021</t>
+  </si>
+  <si>
+    <t>16-01-2021</t>
+  </si>
+  <si>
+    <t>17-01-2021</t>
+  </si>
+  <si>
+    <t>18-01-2021</t>
+  </si>
+  <si>
+    <t>19-01-2021</t>
+  </si>
+  <si>
+    <t>20-01-2021</t>
+  </si>
+  <si>
+    <t>21-01-2021</t>
+  </si>
+  <si>
+    <t>22-01-2021</t>
+  </si>
+  <si>
+    <t>23-01-2021</t>
+  </si>
+  <si>
+    <t>24-01-2021</t>
+  </si>
+  <si>
+    <t>25-01-2021</t>
+  </si>
+  <si>
+    <t>26-01-2021</t>
+  </si>
+  <si>
+    <t>27-01-2021</t>
+  </si>
+  <si>
+    <t>28-01-2021</t>
+  </si>
+  <si>
+    <t>29-01-2021</t>
+  </si>
+  <si>
+    <t>30-01-2021</t>
+  </si>
+  <si>
+    <t>31-01-2021</t>
+  </si>
+  <si>
+    <t>01-02-2021</t>
+  </si>
+  <si>
+    <t>02-02-2021</t>
+  </si>
+  <si>
+    <t>03-02-2021</t>
+  </si>
+  <si>
+    <t>04-02-2021</t>
+  </si>
+  <si>
+    <t>05-02-2021</t>
+  </si>
+  <si>
+    <t>06-02-2021</t>
+  </si>
+  <si>
+    <t>07-02-2021</t>
+  </si>
+  <si>
+    <t>08-02-2021</t>
+  </si>
+  <si>
+    <t>09-02-2021</t>
+  </si>
+  <si>
+    <t>10-02-2021</t>
+  </si>
+  <si>
+    <t>11-02-2021</t>
+  </si>
+  <si>
+    <t>12-02-2021</t>
+  </si>
+  <si>
+    <t>13-02-2021</t>
+  </si>
+  <si>
+    <t>14-02-2021</t>
+  </si>
+  <si>
+    <t>15-02-2021</t>
+  </si>
+  <si>
+    <t>16-02-2021</t>
+  </si>
+  <si>
+    <t>17-02-2021</t>
+  </si>
+  <si>
+    <t>18-02-2021</t>
+  </si>
+  <si>
+    <t>19-02-2021</t>
+  </si>
+  <si>
+    <t>20-02-2021</t>
+  </si>
+  <si>
+    <t>21-02-2021</t>
+  </si>
+  <si>
+    <t>22-02-2021</t>
+  </si>
+  <si>
+    <t>23-02-2021</t>
+  </si>
+  <si>
+    <t>24-02-2021</t>
+  </si>
+  <si>
+    <t>25-02-2021</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dose1</t>
+  </si>
+  <si>
+    <t>dose2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,361 +611,789 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>מספר מתחסנים - מצטבר</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>תאריך</v>
-      </c>
-      <c r="B2" t="str">
-        <v>מתחסנים מנה ראשונה</v>
-      </c>
-      <c r="C2" t="str">
-        <v>מתחסנים מנה שנייה</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>27-01-2021</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
+        <v>7425</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>32311</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>76952</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>139926</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>213496</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>252249</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>285109</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>390277</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>526096</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>683444</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>837697</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>997280</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1069395</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1141796</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1292792</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1445802</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1572516</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1677272</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1794676</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1861808</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1906789</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1944915</v>
+      </c>
+      <c r="C24">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1966347</v>
+      </c>
+      <c r="C25">
+        <v>25242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1990608</v>
+      </c>
+      <c r="C26">
+        <v>60874</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2043027</v>
+      </c>
+      <c r="C27">
+        <v>117766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2099803</v>
+      </c>
+      <c r="C28">
+        <v>186640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2130799</v>
+      </c>
+      <c r="C29">
+        <v>222763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2160492</v>
+      </c>
+      <c r="C30">
+        <v>248948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2228875</v>
+      </c>
+      <c r="C31">
+        <v>333507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2298385</v>
+      </c>
+      <c r="C32">
+        <v>453455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2370957</v>
+      </c>
+      <c r="C33">
+        <v>590715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2447442</v>
+      </c>
+      <c r="C34">
+        <v>733856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2516925</v>
+      </c>
+      <c r="C35">
+        <v>897437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2554609</v>
+      </c>
+      <c r="C36">
+        <v>968231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2594406</v>
+      </c>
+      <c r="C37">
+        <v>1021634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2663296</v>
+      </c>
+      <c r="C38">
+        <v>1161711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2743956</v>
+      </c>
+      <c r="C39">
+        <v>1300634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2822385</v>
+      </c>
+      <c r="C40">
+        <v>1426411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
         <v>2899938</v>
       </c>
-      <c r="C3">
+      <c r="C41">
         <v>1550837</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>28-01-2021</v>
-      </c>
-      <c r="B4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
         <v>2979242</v>
       </c>
-      <c r="C4">
+      <c r="C42">
         <v>1680856</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>29-01-2021</v>
-      </c>
-      <c r="B5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
         <v>3015714</v>
       </c>
-      <c r="C5">
+      <c r="C43">
         <v>1745359</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>30-01-2021</v>
-      </c>
-      <c r="B6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
         <v>3049940</v>
       </c>
-      <c r="C6">
+      <c r="C44">
         <v>1787973</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>31-01-2021</v>
-      </c>
-      <c r="B7">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
         <v>3123011</v>
       </c>
-      <c r="C7">
+      <c r="C45">
         <v>1847202</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>01-02-2021</v>
-      </c>
-      <c r="B8">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
         <v>3205129</v>
       </c>
-      <c r="C8">
+      <c r="C46">
         <v>1882373</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>02-02-2021</v>
-      </c>
-      <c r="B9">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
         <v>3274868</v>
       </c>
-      <c r="C9">
+      <c r="C47">
         <v>1913232</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>03-02-2021</v>
-      </c>
-      <c r="B10">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
         <v>3334841</v>
       </c>
-      <c r="C10">
+      <c r="C48">
         <v>1964309</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>04-02-2021</v>
-      </c>
-      <c r="B11">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>3407025</v>
       </c>
-      <c r="C11">
+      <c r="C49">
         <v>2022002</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>05-02-2021</v>
-      </c>
-      <c r="B12">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
         <v>3440704</v>
       </c>
-      <c r="C12">
+      <c r="C50">
         <v>2050608</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>06-02-2021</v>
-      </c>
-      <c r="B13">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
         <v>3462195</v>
       </c>
-      <c r="C13">
+      <c r="C51">
         <v>2072706</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>07-02-2021</v>
-      </c>
-      <c r="B14">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
         <v>3516234</v>
       </c>
-      <c r="C14">
+      <c r="C52">
         <v>2140828</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>08-02-2021</v>
-      </c>
-      <c r="B15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>3574840</v>
       </c>
-      <c r="C15">
+      <c r="C53">
         <v>2205610</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>09-02-2021</v>
-      </c>
-      <c r="B16">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
         <v>3640992</v>
       </c>
-      <c r="C16">
+      <c r="C54">
         <v>2272444</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>10-02-2021</v>
-      </c>
-      <c r="B17">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>3711132</v>
       </c>
-      <c r="C17">
+      <c r="C55">
         <v>2344181</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>11-02-2021</v>
-      </c>
-      <c r="B18">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
         <v>3791481</v>
       </c>
-      <c r="C18">
+      <c r="C56">
         <v>2415447</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>12-02-2021</v>
-      </c>
-      <c r="B19">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
         <v>3830311</v>
       </c>
-      <c r="C19">
+      <c r="C57">
         <v>2452780</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>13-02-2021</v>
-      </c>
-      <c r="B20">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
         <v>3857663</v>
       </c>
-      <c r="C20">
+      <c r="C58">
         <v>2483053</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>14-02-2021</v>
-      </c>
-      <c r="B21">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
         <v>3931935</v>
       </c>
-      <c r="C21">
+      <c r="C59">
         <v>2551734</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>15-02-2021</v>
-      </c>
-      <c r="B22">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
         <v>4013000</v>
       </c>
-      <c r="C22">
+      <c r="C60">
         <v>2626989</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>16-02-2021</v>
-      </c>
-      <c r="B23">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
         <v>4096122</v>
       </c>
-      <c r="C23">
+      <c r="C61">
         <v>2704027</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>17-02-2021</v>
-      </c>
-      <c r="B24">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
         <v>4157646</v>
       </c>
-      <c r="C24">
+      <c r="C62">
         <v>2778244</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>18-02-2021</v>
-      </c>
-      <c r="B25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
         <v>4226364</v>
       </c>
-      <c r="C25">
+      <c r="C63">
         <v>2857386</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>19-02-2021</v>
-      </c>
-      <c r="B26">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
         <v>4265801</v>
       </c>
-      <c r="C26">
+      <c r="C64">
         <v>2895265</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>20-02-2021</v>
-      </c>
-      <c r="B27">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
         <v>4297285</v>
       </c>
-      <c r="C27">
+      <c r="C65">
         <v>2923761</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>21-02-2021</v>
-      </c>
-      <c r="B28">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
         <v>4376275</v>
       </c>
-      <c r="C28">
+      <c r="C66">
         <v>3001898</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>22-02-2021</v>
-      </c>
-      <c r="B29">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
         <v>4460831</v>
       </c>
-      <c r="C29">
+      <c r="C67">
         <v>3077733</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>23-02-2021</v>
-      </c>
-      <c r="B30">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
         <v>4537703</v>
       </c>
-      <c r="C30">
+      <c r="C68">
         <v>3147536</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>24-02-2021</v>
-      </c>
-      <c r="B31">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
         <v>4598197</v>
       </c>
-      <c r="C31">
+      <c r="C69">
         <v>3209993</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>25-02-2021</v>
-      </c>
-      <c r="B32">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
         <v>4598197</v>
       </c>
-      <c r="C32">
+      <c r="C70">
         <v>3209993</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C32"/>
+    <ignoredError sqref="A2:C70" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>